--- a/0.사업예산관리/예산신청/비목별 사업비 사용내역_210118예상.xlsx
+++ b/0.사업예산관리/예산신청/비목별 사업비 사용내역_210118예상.xlsx
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1028,7 +1028,7 @@
         <v>16143619</v>
       </c>
       <c r="G7" s="4">
-        <v>13858164</v>
+        <v>16143619</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
